--- a/DragPrediction/NL2VP DragX/0.5L/n/4/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/4/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Desktop\New folder\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\NL2VP DragX\0.5L\n\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -354,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -378,8 +378,11 @@
       <c r="E1">
         <v>8.1675991735537194E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>-4.4339120000000003</v>
       </c>
@@ -400,8 +403,16 @@
         <f>SUM(E2:E25)</f>
         <v>1.8870850501267067</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>D2*$G$1</f>
+        <v>3.5917739340000003</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G137)</f>
+        <v>9.7039007940000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>-4.4015300000000002</v>
       </c>
@@ -418,8 +429,12 @@
         <f t="shared" ref="E3:E25" si="0">D3*$E$1</f>
         <v>0.55837064833673555</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="1">D3*$G$1</f>
+        <v>2.8712926200000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>-4.3053900000000001</v>
       </c>
@@ -436,8 +451,12 @@
         <f t="shared" si="0"/>
         <v>0.31796412126769841</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.6350573540000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>-4.2058419999999996</v>
       </c>
@@ -454,8 +473,12 @@
         <f t="shared" si="0"/>
         <v>-8.6143880841049597E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-0.44297509200000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>-4.1512180000000001</v>
       </c>
@@ -472,8 +495,12 @@
         <f t="shared" si="0"/>
         <v>-8.2469955883599178E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-0.42408277799999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>-4.0794180000000004</v>
       </c>
@@ -490,8 +517,12 @@
         <f t="shared" si="0"/>
         <v>2.7546453352685952E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.14165130000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>-3.2680600000000002</v>
       </c>
@@ -508,8 +539,12 @@
         <f t="shared" si="0"/>
         <v>0.19945845646720661</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.025669232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>-3.2405349999999999</v>
       </c>
@@ -526,8 +561,12 @@
         <f t="shared" si="0"/>
         <v>0.17400325970971489</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.89477173800000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>-3.1975730000000002</v>
       </c>
@@ -544,8 +583,12 @@
         <f t="shared" si="0"/>
         <v>7.6517801650673553E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.39347519399999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>-2.7423989999999998</v>
       </c>
@@ -562,8 +605,12 @@
         <f t="shared" si="0"/>
         <v>-0.129893903512562</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-0.66794952000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>-2.7114069999999999</v>
       </c>
@@ -580,8 +627,12 @@
         <f t="shared" si="0"/>
         <v>-0.12926351187314877</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-0.66470787600000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>-2.630261</v>
       </c>
@@ -598,8 +649,12 @@
         <f t="shared" si="0"/>
         <v>-0.12640413341367771</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-0.65000418000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>-0.68841799999999997</v>
       </c>
@@ -616,8 +671,12 @@
         <f t="shared" si="0"/>
         <v>1.7648752484194216E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>9.0754650000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>-0.50345399999999996</v>
       </c>
@@ -634,8 +693,12 @@
         <f t="shared" si="0"/>
         <v>2.670668530845868E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.13733298600000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>-0.50160800000000005</v>
       </c>
@@ -652,8 +715,12 @@
         <f t="shared" si="0"/>
         <v>2.0128166062512397E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.10350446400000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>-0.43035800000000002</v>
       </c>
@@ -670,8 +737,12 @@
         <f t="shared" si="0"/>
         <v>2.9105141643768595E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.14966649600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>-0.39943200000000001</v>
       </c>
@@ -688,8 +759,12 @@
         <f t="shared" si="0"/>
         <v>2.5711063136801653E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.13221322799999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>-0.34505400000000003</v>
       </c>
@@ -706,8 +781,12 @@
         <f t="shared" si="0"/>
         <v>2.360880478552066E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.12140284799999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>-0.158744</v>
       </c>
@@ -724,8 +803,12 @@
         <f t="shared" si="0"/>
         <v>2.4105149787297522E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.12395518800000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>-0.15232399999999999</v>
       </c>
@@ -742,8 +825,12 @@
         <f t="shared" si="0"/>
         <v>3.7283154506268595E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.19172004600000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>-0.13291800000000001</v>
       </c>
@@ -760,8 +847,12 @@
         <f t="shared" si="0"/>
         <v>1.6306726096388429E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>8.3853588000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>-8.4822999999999996E-2</v>
       </c>
@@ -778,8 +869,12 @@
         <f t="shared" si="0"/>
         <v>6.4723429069698357E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.33282534600000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>-2.5101999999999999E-2</v>
       </c>
@@ -796,8 +891,12 @@
         <f t="shared" si="0"/>
         <v>5.107198129703306E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.26262591600000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>-3.4139999999999999E-3</v>
       </c>
@@ -813,6 +912,10 @@
       <c r="E25">
         <f t="shared" si="0"/>
         <v>5.2520406999272726E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.27007411199999998</v>
       </c>
     </row>
   </sheetData>

--- a/DragPrediction/NL2VP DragX/0.5L/n/4/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/4/test.xlsx
@@ -379,7 +379,7 @@
         <v>8.1675991735537194E-3</v>
       </c>
       <c r="G1">
-        <v>4.2000000000000003E-2</v>
+        <v>3.9531179999999999E-2</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -405,11 +405,11 @@
       </c>
       <c r="G2">
         <f>D2*$G$1</f>
-        <v>3.5917739340000003</v>
+        <v>3.3806443310538601</v>
       </c>
       <c r="H2">
         <f>SUM(G2:G137)</f>
-        <v>9.7039007940000008</v>
+        <v>9.1334916426132615</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -431,7 +431,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G25" si="1">D3*$G$1</f>
-        <v>2.8712926200000002</v>
+        <v>2.7025139379497998</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -453,7 +453,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.6350573540000002</v>
+        <v>1.5389463469356601</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -475,7 +475,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>-0.44297509200000007</v>
+        <v>-0.41693638327068</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -497,7 +497,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>-0.42408277799999999</v>
+        <v>-0.39915458647661994</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -519,7 +519,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.14165130000000001</v>
+        <v>0.13332483422700001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -541,7 +541,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>1.025669232</v>
+        <v>0.96537892930128</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -563,7 +563,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.89477173800000009</v>
+        <v>0.84217577699502</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -585,7 +585,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.39347519399999997</v>
+        <v>0.37034615998925996</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -607,7 +607,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-0.66794952000000007</v>
+        <v>-0.62868649300080004</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -629,7 +629,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>-0.66470787600000003</v>
+        <v>-0.62563539746604002</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -651,7 +651,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-0.65000418000000004</v>
+        <v>-0.61179600572220005</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -673,7 +673,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>9.0754650000000006E-2</v>
+        <v>8.5419962023499996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -695,7 +695,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.13733298600000002</v>
+        <v>0.12926035689293999</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -717,7 +717,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0.10350446400000002</v>
+        <v>9.7420323742560003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -739,7 +739,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>0.14966649600000001</v>
+        <v>0.14086888555583998</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -761,7 +761,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>0.13221322799999999</v>
+        <v>0.12444154558211999</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -783,7 +783,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>0.12140284799999999</v>
+        <v>0.11426661516191999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -805,7 +805,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>0.12395518800000001</v>
+        <v>0.11666892497051999</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -827,7 +827,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>0.19172004600000001</v>
+        <v>0.18045046781033999</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -849,7 +849,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>8.3853588000000007E-2</v>
+        <v>7.8924554306519998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -871,7 +871,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0.33282534600000002</v>
+        <v>0.31326139669733999</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -893,7 +893,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>0.26262591600000001</v>
+        <v>0.24718838947763999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -915,7 +915,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>0.27007411199999998</v>
+        <v>0.25419876987647999</v>
       </c>
     </row>
   </sheetData>
